--- a/mercados/pbi_peru_des.xlsx
+++ b/mercados/pbi_peru_des.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2534,7 +2534,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C196" s="2">
         <v>44256</v>
@@ -2567,7 +2567,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C199" s="2">
         <v>44348</v>
@@ -2578,7 +2578,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C200" s="2">
         <v>44378</v>
@@ -2589,7 +2589,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="C201" s="2">
         <v>44409</v>
@@ -2600,7 +2600,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="C202" s="2">
         <v>44440</v>
@@ -2622,7 +2622,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1</v>
+        <v>-0</v>
       </c>
       <c r="C204" s="2">
         <v>44501</v>
@@ -2655,7 +2655,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="C207" s="2">
         <v>44593</v>
@@ -2677,7 +2677,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="C209" s="2">
         <v>44652</v>
@@ -2692,6 +2692,17 @@
       </c>
       <c r="C210" s="2">
         <v>44682</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>1.6</v>
+      </c>
+      <c r="C211" s="2">
+        <v>44713</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pbi_peru_des.xlsx
+++ b/mercados/pbi_peru_des.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2705,6 +2705,17 @@
         <v>44713</v>
       </c>
     </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>-1.9</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pbi_peru_des.xlsx
+++ b/mercados/pbi_peru_des.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2716,6 +2716,17 @@
         <v>44743</v>
       </c>
     </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>1.9</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pbi_peru_des.xlsx
+++ b/mercados/pbi_peru_des.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2512,7 +2512,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="C194" s="2">
         <v>44197</v>
@@ -2534,7 +2534,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="C196" s="2">
         <v>44256</v>
@@ -2622,7 +2622,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0</v>
+        <v>0.1</v>
       </c>
       <c r="C204" s="2">
         <v>44501</v>
@@ -2710,7 +2710,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="C212" s="2">
         <v>44743</v>
@@ -2721,10 +2721,21 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="C213" s="2">
         <v>44774</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.8</v>
+      </c>
+      <c r="C214" s="2">
+        <v>44805</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pbi_peru_des.xlsx
+++ b/mercados/pbi_peru_des.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2738,6 +2738,17 @@
         <v>44805</v>
       </c>
     </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>-0.5</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pbi_peru_des.xlsx
+++ b/mercados/pbi_peru_des.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C27" s="2">
         <v>39114</v>
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="C28" s="2">
         <v>39142</v>
@@ -697,7 +697,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="C29" s="2">
         <v>39173</v>
@@ -708,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="C30" s="2">
         <v>39203</v>
@@ -730,7 +730,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C32" s="2">
         <v>39264</v>
@@ -741,7 +741,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C33" s="2">
         <v>39295</v>
@@ -752,7 +752,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C34" s="2">
         <v>39326</v>
@@ -763,7 +763,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="C35" s="2">
         <v>39356</v>
@@ -785,7 +785,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="C37" s="2">
         <v>39417</v>
@@ -796,7 +796,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C38" s="2">
         <v>39448</v>
@@ -807,7 +807,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="C39" s="2">
         <v>39479</v>
@@ -818,7 +818,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C40" s="2">
         <v>39508</v>
@@ -829,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C41" s="2">
         <v>39539</v>
@@ -840,7 +840,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="C42" s="2">
         <v>39569</v>
@@ -851,7 +851,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="C43" s="2">
         <v>39600</v>
@@ -862,7 +862,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C44" s="2">
         <v>39630</v>
@@ -873,7 +873,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="C45" s="2">
         <v>39661</v>
@@ -884,7 +884,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>39692</v>
@@ -895,7 +895,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="C47" s="2">
         <v>39722</v>
@@ -906,7 +906,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C48" s="2">
         <v>39753</v>
@@ -917,7 +917,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="C49" s="2">
         <v>39783</v>
@@ -928,7 +928,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2">
         <v>39814</v>
@@ -939,7 +939,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="C51" s="2">
         <v>39845</v>
@@ -950,7 +950,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="C52" s="2">
         <v>39873</v>
@@ -961,7 +961,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="C53" s="2">
         <v>39904</v>
@@ -972,7 +972,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="C54" s="2">
         <v>39934</v>
@@ -983,7 +983,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-2.3</v>
+        <v>-3.4</v>
       </c>
       <c r="C55" s="2">
         <v>39965</v>
@@ -994,7 +994,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="C56" s="2">
         <v>39995</v>
@@ -1005,7 +1005,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="C57" s="2">
         <v>40026</v>
@@ -1016,7 +1016,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C58" s="2">
         <v>40057</v>
@@ -1027,7 +1027,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2">
         <v>40087</v>
@@ -1038,7 +1038,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="C60" s="2">
         <v>40118</v>
@@ -1049,7 +1049,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C61" s="2">
         <v>40148</v>
@@ -1060,7 +1060,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C62" s="2">
         <v>40179</v>
@@ -1071,7 +1071,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C63" s="2">
         <v>40210</v>
@@ -1082,7 +1082,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="C64" s="2">
         <v>40238</v>
@@ -1104,7 +1104,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C66" s="2">
         <v>40299</v>
@@ -1115,7 +1115,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="C67" s="2">
         <v>40330</v>
@@ -1126,7 +1126,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="C68" s="2">
         <v>40360</v>
@@ -1137,7 +1137,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C69" s="2">
         <v>40391</v>
@@ -1148,7 +1148,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="C70" s="2">
         <v>40422</v>
@@ -1159,7 +1159,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="C71" s="2">
         <v>40452</v>
@@ -1170,7 +1170,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C72" s="2">
         <v>40483</v>
@@ -1192,7 +1192,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="C74" s="2">
         <v>40544</v>
@@ -1203,7 +1203,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.4</v>
+        <v>-0</v>
       </c>
       <c r="C75" s="2">
         <v>40575</v>
@@ -1214,7 +1214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="C76" s="2">
         <v>40603</v>
@@ -1225,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="C77" s="2">
         <v>40634</v>
@@ -1236,7 +1236,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="C78" s="2">
         <v>40664</v>
@@ -1247,7 +1247,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C79" s="2">
         <v>40695</v>
@@ -1258,7 +1258,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2">
         <v>40725</v>
@@ -1269,7 +1269,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="C81" s="2">
         <v>40756</v>
@@ -1280,7 +1280,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C82" s="2">
         <v>40787</v>
@@ -1291,7 +1291,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2">
         <v>40817</v>
@@ -1302,7 +1302,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="C84" s="2">
         <v>40848</v>
@@ -1313,7 +1313,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="C85" s="2">
         <v>40878</v>
@@ -1324,7 +1324,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="C86" s="2">
         <v>40909</v>
@@ -1335,7 +1335,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="C87" s="2">
         <v>40940</v>
@@ -1346,7 +1346,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="C88" s="2">
         <v>40969</v>
@@ -1357,7 +1357,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="C89" s="2">
         <v>41000</v>
@@ -1368,7 +1368,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="C90" s="2">
         <v>41030</v>
@@ -1390,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C92" s="2">
         <v>41091</v>
@@ -1401,7 +1401,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C93" s="2">
         <v>41122</v>
@@ -1412,7 +1412,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0</v>
+        <v>0.6</v>
       </c>
       <c r="C94" s="2">
         <v>41153</v>
@@ -1423,7 +1423,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C95" s="2">
         <v>41183</v>
@@ -1434,7 +1434,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="C96" s="2">
         <v>41214</v>
@@ -1445,7 +1445,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C97" s="2">
         <v>41244</v>
@@ -1456,7 +1456,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="C98" s="2">
         <v>41275</v>
@@ -1467,7 +1467,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="C99" s="2">
         <v>41306</v>
@@ -1478,7 +1478,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="C100" s="2">
         <v>41334</v>
@@ -1522,7 +1522,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C104" s="2">
         <v>41456</v>
@@ -1533,7 +1533,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="C105" s="2">
         <v>41487</v>
@@ -1555,7 +1555,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="C107" s="2">
         <v>41548</v>
@@ -1566,7 +1566,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="C108" s="2">
         <v>41579</v>
@@ -1577,7 +1577,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="C109" s="2">
         <v>41609</v>
@@ -1588,7 +1588,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C110" s="2">
         <v>41640</v>
@@ -1599,7 +1599,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="C111" s="2">
         <v>41671</v>
@@ -1610,7 +1610,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="C112" s="2">
         <v>41699</v>
@@ -1621,7 +1621,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="C113" s="2">
         <v>41730</v>
@@ -1632,7 +1632,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.3</v>
+        <v>-0.6</v>
       </c>
       <c r="C114" s="2">
         <v>41760</v>
@@ -1643,7 +1643,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="C115" s="2">
         <v>41791</v>
@@ -1665,7 +1665,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C117" s="2">
         <v>41852</v>
@@ -1676,7 +1676,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C118" s="2">
         <v>41883</v>
@@ -1687,7 +1687,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C119" s="2">
         <v>41913</v>
@@ -1698,7 +1698,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="C120" s="2">
         <v>41944</v>
@@ -1709,7 +1709,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="C121" s="2">
         <v>41974</v>
@@ -1720,7 +1720,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="C122" s="2">
         <v>42005</v>
@@ -1731,7 +1731,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C123" s="2">
         <v>42036</v>
@@ -1742,7 +1742,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="C124" s="2">
         <v>42064</v>
@@ -1753,7 +1753,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="C125" s="2">
         <v>42095</v>
@@ -1764,7 +1764,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-3.9</v>
+        <v>-2.9</v>
       </c>
       <c r="C126" s="2">
         <v>42125</v>
@@ -1775,7 +1775,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="C127" s="2">
         <v>42156</v>
@@ -1786,7 +1786,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C128" s="2">
         <v>42186</v>
@@ -1797,7 +1797,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="C129" s="2">
         <v>42217</v>
@@ -1808,7 +1808,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="C130" s="2">
         <v>42248</v>
@@ -1819,7 +1819,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="C131" s="2">
         <v>42278</v>
@@ -1830,7 +1830,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="C132" s="2">
         <v>42309</v>
@@ -1841,7 +1841,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C133" s="2">
         <v>42339</v>
@@ -1852,7 +1852,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.7</v>
+        <v>-1.1</v>
       </c>
       <c r="C134" s="2">
         <v>42370</v>
@@ -1863,7 +1863,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C135" s="2">
         <v>42401</v>
@@ -1874,7 +1874,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="C136" s="2">
         <v>42430</v>
@@ -1885,7 +1885,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-2.1</v>
+        <v>-1.5</v>
       </c>
       <c r="C137" s="2">
         <v>42461</v>
@@ -1896,7 +1896,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="C138" s="2">
         <v>42491</v>
@@ -1907,7 +1907,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="C139" s="2">
         <v>42522</v>
@@ -1918,7 +1918,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="C140" s="2">
         <v>42552</v>
@@ -1929,7 +1929,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="C141" s="2">
         <v>42583</v>
@@ -1951,7 +1951,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-1.1</v>
+        <v>-0.7</v>
       </c>
       <c r="C143" s="2">
         <v>42644</v>
@@ -1962,7 +1962,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C144" s="2">
         <v>42675</v>
@@ -1973,7 +1973,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C145" s="2">
         <v>42705</v>
@@ -1984,7 +1984,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C146" s="2">
         <v>42736</v>
@@ -1995,7 +1995,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="C147" s="2">
         <v>42767</v>
@@ -2006,7 +2006,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-1.1</v>
+        <v>-1.6</v>
       </c>
       <c r="C148" s="2">
         <v>42795</v>
@@ -2017,7 +2017,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C149" s="2">
         <v>42826</v>
@@ -2028,7 +2028,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C150" s="2">
         <v>42856</v>
@@ -2039,7 +2039,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C151" s="2">
         <v>42887</v>
@@ -2050,7 +2050,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="C152" s="2">
         <v>42917</v>
@@ -2061,7 +2061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="C153" s="2">
         <v>42948</v>
@@ -2072,7 +2072,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C154" s="2">
         <v>42979</v>
@@ -2083,7 +2083,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="C155" s="2">
         <v>43009</v>
@@ -2094,7 +2094,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C156" s="2">
         <v>43040</v>
@@ -2105,7 +2105,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="C157" s="2">
         <v>43070</v>
@@ -2116,7 +2116,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="C158" s="2">
         <v>43101</v>
@@ -2127,7 +2127,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-1.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C159" s="2">
         <v>43132</v>
@@ -2138,7 +2138,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="C160" s="2">
         <v>43160</v>
@@ -2149,7 +2149,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="C161" s="2">
         <v>43191</v>
@@ -2160,7 +2160,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C162" s="2">
         <v>43221</v>
@@ -2171,7 +2171,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="C163" s="2">
         <v>43252</v>
@@ -2182,7 +2182,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="C164" s="2">
         <v>43282</v>
@@ -2204,7 +2204,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C166" s="2">
         <v>43344</v>
@@ -2215,7 +2215,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C167" s="2">
         <v>43374</v>
@@ -2226,7 +2226,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C168" s="2">
         <v>43405</v>
@@ -2237,7 +2237,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C169" s="2">
         <v>43435</v>
@@ -2248,7 +2248,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="C170" s="2">
         <v>43466</v>
@@ -2259,7 +2259,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.7</v>
+        <v>0.1</v>
       </c>
       <c r="C171" s="2">
         <v>43497</v>
@@ -2270,7 +2270,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="C172" s="2">
         <v>43525</v>
@@ -2281,7 +2281,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="C173" s="2">
         <v>43556</v>
@@ -2292,7 +2292,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C174" s="2">
         <v>43586</v>
@@ -2303,7 +2303,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="C175" s="2">
         <v>43617</v>
@@ -2314,7 +2314,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="C176" s="2">
         <v>43647</v>
@@ -2325,7 +2325,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C177" s="2">
         <v>43678</v>
@@ -2347,7 +2347,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C179" s="2">
         <v>43739</v>
@@ -2358,7 +2358,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C180" s="2">
         <v>43770</v>
@@ -2369,7 +2369,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="C181" s="2">
         <v>43800</v>
@@ -2380,7 +2380,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="C182" s="2">
         <v>43831</v>
@@ -2391,7 +2391,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="C183" s="2">
         <v>43862</v>
@@ -2402,7 +2402,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-19.7</v>
+        <v>-18.6</v>
       </c>
       <c r="C184" s="2">
         <v>43891</v>
@@ -2413,7 +2413,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-24.9</v>
+        <v>-25.7</v>
       </c>
       <c r="C185" s="2">
         <v>43922</v>
@@ -2424,7 +2424,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="C186" s="2">
         <v>43952</v>
@@ -2435,7 +2435,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C187" s="2">
         <v>43983</v>
@@ -2446,7 +2446,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="C188" s="2">
         <v>44013</v>
@@ -2457,7 +2457,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C189" s="2">
         <v>44044</v>
@@ -2468,7 +2468,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C190" s="2">
         <v>44075</v>
@@ -2479,7 +2479,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C191" s="2">
         <v>44105</v>
@@ -2512,7 +2512,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="C194" s="2">
         <v>44197</v>
@@ -2523,7 +2523,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="C195" s="2">
         <v>44228</v>
@@ -2545,7 +2545,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C197" s="2">
         <v>44287</v>
@@ -2556,7 +2556,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="C198" s="2">
         <v>44317</v>
@@ -2567,7 +2567,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C199" s="2">
         <v>44348</v>
@@ -2578,7 +2578,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C200" s="2">
         <v>44378</v>
@@ -2589,7 +2589,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C201" s="2">
         <v>44409</v>
@@ -2600,7 +2600,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C202" s="2">
         <v>44440</v>
@@ -2611,7 +2611,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="C203" s="2">
         <v>44470</v>
@@ -2622,7 +2622,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C204" s="2">
         <v>44501</v>
@@ -2633,7 +2633,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C205" s="2">
         <v>44531</v>
@@ -2644,7 +2644,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="C206" s="2">
         <v>44562</v>
@@ -2655,7 +2655,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="C207" s="2">
         <v>44593</v>
@@ -2666,7 +2666,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="C208" s="2">
         <v>44621</v>
@@ -2677,7 +2677,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C209" s="2">
         <v>44652</v>
@@ -2688,7 +2688,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="C210" s="2">
         <v>44682</v>
@@ -2699,7 +2699,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="C211" s="2">
         <v>44713</v>
@@ -2710,7 +2710,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-1.7</v>
+        <v>-0.8</v>
       </c>
       <c r="C212" s="2">
         <v>44743</v>
@@ -2721,7 +2721,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="C213" s="2">
         <v>44774</v>
@@ -2732,7 +2732,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C214" s="2">
         <v>44805</v>
@@ -2743,10 +2743,76 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="C215" s="2">
         <v>44835</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>-0.2</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>-0.3</v>
+      </c>
+      <c r="C217" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>-1.5</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.8</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>-0.1</v>
+      </c>
+      <c r="C220" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.6</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45017</v>
       </c>
     </row>
   </sheetData>
